--- a/ResumeApp-Api/BL/Model/smallTree.xlsx
+++ b/ResumeApp-Api/BL/Model/smallTree.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
